--- a/output/EXP_2/respirometry/respirometry_summary.xlsx
+++ b/output/EXP_2/respirometry/respirometry_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Respirometry\Desktop\fish541_lab\respirometry\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattg\Dropbox\UW\Postdoc\fish541_lab\output\EXP_2\respirometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9286B9AE-6A47-4352-A816-26C89B0D1AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A617F6E0-8C49-4860-908B-A1AB008B0858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{449C3B01-0FCE-4591-A807-44779BAD5345}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{449C3B01-0FCE-4591-A807-44779BAD5345}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="53">
   <si>
     <t>mussel_ID</t>
   </si>
@@ -185,6 +175,15 @@
   </si>
   <si>
     <t>umol_L_hr_cm</t>
+  </si>
+  <si>
+    <t>bp_list</t>
+  </si>
+  <si>
+    <t>acute</t>
+  </si>
+  <si>
+    <t>trt_stat</t>
   </si>
 </sst>
 </file>
@@ -228,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,7 +238,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -557,26 +555,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F39EEFE-DAE0-4470-BF3D-6803FF603516}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.05078125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.47265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.05078125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83984375" style="1"/>
-    <col min="5" max="5" width="13.89453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.3671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83984375" style="1"/>
-    <col min="8" max="8" width="12.62890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" style="1"/>
+    <col min="5" max="6" width="12.54296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.36328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" style="1"/>
+    <col min="10" max="10" width="12.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -590,19 +589,25 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -615,23 +620,29 @@
       <c r="D2" s="1">
         <v>12</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2">
         <v>44677</v>
       </c>
-      <c r="F2" s="1">
+      <c r="H2" s="1">
         <v>9.4</v>
       </c>
-      <c r="G2" s="1">
+      <c r="I2" s="1">
         <v>6.4580000000000002</v>
       </c>
-      <c r="H2">
-        <f>F2/G2</f>
+      <c r="J2">
+        <f>H2/I2</f>
         <v>1.4555589965933726</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>45</v>
@@ -640,25 +651,31 @@
         <v>42</v>
       </c>
       <c r="D3" s="1">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2">
-        <v>44691</v>
-      </c>
-      <c r="F3" s="1">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="G3" s="1">
-        <v>6.4580000000000002</v>
-      </c>
-      <c r="H3" s="4">
-        <f t="shared" ref="H3:H51" si="0">F3/G3</f>
-        <v>2.6169092598327652</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44677</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="I3" s="4">
+        <v>6.7690000000000001</v>
+      </c>
+      <c r="J3">
+        <f>H3/I3</f>
+        <v>1.5659624759934998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>45</v>
@@ -669,23 +686,29 @@
       <c r="D4" s="1">
         <v>12</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="2">
         <v>44677</v>
       </c>
-      <c r="F4" s="1">
-        <v>10.6</v>
-      </c>
-      <c r="G4" s="5">
-        <v>6.7690000000000001</v>
-      </c>
-      <c r="H4" s="4">
-        <f t="shared" si="0"/>
-        <v>1.5659624759934998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H4" s="1">
+        <v>11</v>
+      </c>
+      <c r="I4" s="4">
+        <v>5.1040000000000001</v>
+      </c>
+      <c r="J4">
+        <f>H4/I4</f>
+        <v>2.1551724137931032</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>45</v>
@@ -694,25 +717,24 @@
         <v>42</v>
       </c>
       <c r="D5" s="1">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2">
-        <v>44691</v>
-      </c>
-      <c r="F5" s="1">
-        <v>56.2</v>
-      </c>
-      <c r="G5" s="5">
-        <v>6.7690000000000001</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="0"/>
-        <v>8.302555768946668</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2">
+        <v>44677</v>
+      </c>
+      <c r="H5" s="1">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>45</v>
@@ -723,23 +745,29 @@
       <c r="D6" s="1">
         <v>12</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="2">
         <v>44677</v>
       </c>
-      <c r="F6" s="1">
-        <v>11</v>
-      </c>
-      <c r="G6" s="5">
-        <v>5.1040000000000001</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" si="0"/>
-        <v>2.1551724137931032</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H6" s="1">
+        <v>9</v>
+      </c>
+      <c r="I6" s="4">
+        <v>5.3140000000000001</v>
+      </c>
+      <c r="J6">
+        <f>H6/I6</f>
+        <v>1.6936394429808055</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>45</v>
@@ -748,25 +776,31 @@
         <v>42</v>
       </c>
       <c r="D7" s="1">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2">
-        <v>44691</v>
-      </c>
-      <c r="F7" s="1">
-        <v>41.1</v>
-      </c>
-      <c r="G7" s="5">
-        <v>5.1040000000000001</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="0"/>
-        <v>8.0525078369905962</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44677</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="4">
+        <v>6.5620000000000003</v>
+      </c>
+      <c r="J7">
+        <f>H7/I7</f>
+        <v>0.76196281621456874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>45</v>
@@ -777,17 +811,22 @@
       <c r="D8" s="1">
         <v>12</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="2">
         <v>44677</v>
       </c>
-      <c r="F8" s="1">
-        <v>9.6</v>
-      </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H8" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>45</v>
@@ -798,23 +837,29 @@
       <c r="D9" s="1">
         <v>12</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="2">
         <v>44677</v>
       </c>
-      <c r="F9" s="1">
-        <v>9</v>
-      </c>
-      <c r="G9" s="5">
-        <v>5.3140000000000001</v>
-      </c>
-      <c r="H9" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6936394429808055</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H9" s="1">
+        <v>18</v>
+      </c>
+      <c r="I9" s="4">
+        <v>6.5640000000000001</v>
+      </c>
+      <c r="J9">
+        <f>H9/I9</f>
+        <v>2.7422303473491771</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>45</v>
@@ -823,25 +868,31 @@
         <v>42</v>
       </c>
       <c r="D10" s="1">
-        <v>18</v>
-      </c>
-      <c r="E10" s="2">
-        <v>44691</v>
-      </c>
-      <c r="F10" s="1">
-        <v>30.4</v>
-      </c>
-      <c r="G10" s="5">
-        <v>5.3140000000000001</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" si="0"/>
-        <v>5.7207376740684976</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="2">
+        <v>44677</v>
+      </c>
+      <c r="H10" s="1">
+        <v>18</v>
+      </c>
+      <c r="I10" s="4">
+        <v>6.3540000000000001</v>
+      </c>
+      <c r="J10">
+        <f>H10/I10</f>
+        <v>2.8328611898016995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>45</v>
@@ -852,179 +903,220 @@
       <c r="D11" s="1">
         <v>12</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="2">
         <v>44677</v>
       </c>
-      <c r="F11" s="1">
-        <v>5</v>
-      </c>
-      <c r="G11" s="5">
-        <v>6.5620000000000003</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.76196281621456874</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H11" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="I11" s="4">
+        <v>5.9359999999999999</v>
+      </c>
+      <c r="J11">
+        <f>H11/I11</f>
+        <v>1.7688679245283019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1">
-        <v>18</v>
-      </c>
-      <c r="E12" s="2">
-        <v>44691</v>
-      </c>
-      <c r="F12" s="1">
-        <v>25.7</v>
-      </c>
-      <c r="G12" s="5">
-        <v>6.5620000000000003</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="0"/>
-        <v>3.9164888753428828</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="2">
+        <v>44677</v>
+      </c>
+      <c r="H12" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>6.3540000000000001</v>
+      </c>
+      <c r="J12">
+        <f>H12/I12</f>
+        <v>2.3764557758892035</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1">
         <v>12</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="2">
         <v>44677</v>
       </c>
-      <c r="F13" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H13" s="1">
+        <v>35.1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>7.5010000000000003</v>
+      </c>
+      <c r="J13">
+        <f>H13/I13</f>
+        <v>4.6793760831889077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1">
         <v>12</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="2">
         <v>44677</v>
       </c>
-      <c r="F14" s="1">
-        <v>18</v>
-      </c>
-      <c r="G14" s="5">
-        <v>6.5640000000000001</v>
-      </c>
-      <c r="H14" s="4">
-        <f t="shared" si="0"/>
-        <v>2.7422303473491771</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H14" s="1">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1">
         <v>12</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="2">
         <v>44677</v>
       </c>
-      <c r="F15" s="1">
-        <v>18</v>
-      </c>
-      <c r="G15" s="5">
-        <v>6.3540000000000001</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" si="0"/>
-        <v>2.8328611898016995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H15" s="1">
+        <v>21.3</v>
+      </c>
+      <c r="I15" s="4">
+        <v>6.5590000000000002</v>
+      </c>
+      <c r="J15">
+        <f>H15/I15</f>
+        <v>3.2474462570513798</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1">
-        <v>18</v>
-      </c>
-      <c r="E16" s="2">
-        <v>44691</v>
-      </c>
-      <c r="F16" s="1">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="G16" s="5">
-        <v>6.3540000000000001</v>
-      </c>
-      <c r="H16" s="4">
-        <f t="shared" si="0"/>
-        <v>2.6912181303116149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="2">
+        <v>44677</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5</v>
+      </c>
+      <c r="I16" s="4">
+        <v>5.7320000000000002</v>
+      </c>
+      <c r="J16">
+        <f>H16/I16</f>
+        <v>0.87229588276343328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="1">
         <v>12</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="2">
         <v>44677</v>
       </c>
-      <c r="F17" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="G17" s="5">
-        <v>5.9359999999999999</v>
-      </c>
-      <c r="H17" s="4">
-        <f t="shared" si="0"/>
-        <v>1.7688679245283019</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H17" s="1">
+        <v>31.9</v>
+      </c>
+      <c r="I17" s="4">
+        <v>6.0419999999999998</v>
+      </c>
+      <c r="J17">
+        <f>H17/I17</f>
+        <v>5.2797087057265806</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>46</v>
@@ -1035,23 +1127,29 @@
       <c r="D18" s="1">
         <v>12</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="2">
         <v>44677</v>
       </c>
-      <c r="F18" s="1">
-        <v>15.1</v>
-      </c>
-      <c r="G18" s="5">
-        <v>6.3540000000000001</v>
-      </c>
-      <c r="H18" s="4">
-        <f t="shared" si="0"/>
-        <v>2.3764557758892035</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H18" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I18" s="4">
+        <v>6.2509999999999994</v>
+      </c>
+      <c r="J18">
+        <f>H18/I18</f>
+        <v>0.36794112941929291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>46</v>
@@ -1060,25 +1158,31 @@
         <v>43</v>
       </c>
       <c r="D19" s="1">
-        <v>18</v>
-      </c>
-      <c r="E19" s="2">
-        <v>44691</v>
-      </c>
-      <c r="F19" s="1">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="G19" s="5">
-        <v>6.3540000000000001</v>
-      </c>
-      <c r="H19" s="4">
-        <f t="shared" si="0"/>
-        <v>2.6912181303116149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="2">
+        <v>44677</v>
+      </c>
+      <c r="H19" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I19" s="4">
+        <v>6.4560000000000004</v>
+      </c>
+      <c r="J19">
+        <f>H19/I19</f>
+        <v>1.5179677819083024</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>46</v>
@@ -1089,23 +1193,29 @@
       <c r="D20" s="1">
         <v>12</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="2">
         <v>44677</v>
       </c>
-      <c r="F20" s="1">
-        <v>35.1</v>
-      </c>
-      <c r="G20" s="5">
-        <v>7.5010000000000003</v>
-      </c>
-      <c r="H20" s="4">
-        <f t="shared" si="0"/>
-        <v>4.6793760831889077</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H20" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="I20" s="4">
+        <v>6.2469999999999999</v>
+      </c>
+      <c r="J20">
+        <f>H20/I20</f>
+        <v>0.60829198015047226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>46</v>
@@ -1114,181 +1224,241 @@
         <v>43</v>
       </c>
       <c r="D21" s="1">
-        <v>18</v>
-      </c>
-      <c r="E21" s="2">
-        <v>44691</v>
-      </c>
-      <c r="F21" s="1">
-        <v>28</v>
-      </c>
-      <c r="G21" s="5">
-        <v>7.5010000000000003</v>
-      </c>
-      <c r="H21" s="4">
-        <f t="shared" si="0"/>
-        <v>3.7328356219170775</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="2">
+        <v>44677</v>
+      </c>
+      <c r="H21" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="I21" s="4">
+        <v>5.9380000000000006</v>
+      </c>
+      <c r="J21">
+        <f>H21/I21</f>
+        <v>3.2165712361064331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="1">
-        <v>12</v>
-      </c>
-      <c r="E22" s="2">
-        <v>44677</v>
-      </c>
-      <c r="F22" s="1">
-        <v>24.4</v>
-      </c>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f>C22&amp;"_"&amp;D22</f>
+        <v>chronic_18</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f>C22</f>
+        <v>chronic</v>
+      </c>
+      <c r="G22" s="2">
+        <v>44691</v>
+      </c>
+      <c r="H22" s="1">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="I22" s="1">
+        <v>6.4580000000000002</v>
+      </c>
+      <c r="J22">
+        <f>H22/I22</f>
+        <v>2.6169092598327652</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="1">
-        <v>12</v>
-      </c>
-      <c r="E23" s="2">
-        <v>44677</v>
-      </c>
-      <c r="F23" s="1">
-        <v>21.3</v>
-      </c>
-      <c r="G23" s="5">
-        <v>6.5590000000000002</v>
-      </c>
-      <c r="H23" s="4">
-        <f t="shared" si="0"/>
-        <v>3.2474462570513798</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f>C23&amp;"_"&amp;D23</f>
+        <v>chronic_18</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f t="shared" ref="F23:F51" si="0">C23</f>
+        <v>chronic</v>
+      </c>
+      <c r="G23" s="2">
+        <v>44691</v>
+      </c>
+      <c r="H23" s="1">
+        <v>56.2</v>
+      </c>
+      <c r="I23" s="4">
+        <v>6.7690000000000001</v>
+      </c>
+      <c r="J23">
+        <f>H23/I23</f>
+        <v>8.302555768946668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" s="1">
         <v>18</v>
       </c>
-      <c r="E24" s="2">
-        <v>44691</v>
-      </c>
-      <c r="F24" s="1">
-        <v>25.6</v>
-      </c>
-      <c r="G24" s="5">
-        <v>6.5590000000000002</v>
-      </c>
-      <c r="H24" s="4">
-        <f t="shared" si="0"/>
-        <v>3.9030339990852267</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E24" s="1" t="str">
+        <f>C24&amp;"_"&amp;D24</f>
+        <v>chronic_18</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>chronic</v>
+      </c>
+      <c r="G24" s="2">
+        <v>44691</v>
+      </c>
+      <c r="H24" s="1">
+        <v>41.1</v>
+      </c>
+      <c r="I24" s="4">
+        <v>5.1040000000000001</v>
+      </c>
+      <c r="J24">
+        <f>H24/I24</f>
+        <v>8.0525078369905962</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="1">
-        <v>12</v>
-      </c>
-      <c r="E25" s="2">
-        <v>44677</v>
-      </c>
-      <c r="F25" s="1">
-        <v>5</v>
-      </c>
-      <c r="G25" s="5">
-        <v>5.7320000000000002</v>
-      </c>
-      <c r="H25" s="4">
-        <f t="shared" si="0"/>
-        <v>0.87229588276343328</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f>C25&amp;"_"&amp;D25</f>
+        <v>chronic_18</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>chronic</v>
+      </c>
+      <c r="G25" s="2">
+        <v>44691</v>
+      </c>
+      <c r="H25" s="1">
+        <v>30.4</v>
+      </c>
+      <c r="I25" s="4">
+        <v>5.3140000000000001</v>
+      </c>
+      <c r="J25">
+        <f>H25/I25</f>
+        <v>5.7207376740684976</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26" s="1">
         <v>18</v>
       </c>
-      <c r="E26" s="2">
-        <v>44691</v>
-      </c>
-      <c r="F26" s="1">
-        <v>14.2</v>
-      </c>
-      <c r="G26" s="5">
-        <v>5.7320000000000002</v>
-      </c>
-      <c r="H26" s="4">
-        <f t="shared" si="0"/>
-        <v>2.4773203070481506</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E26" s="1" t="str">
+        <f>C26&amp;"_"&amp;D26</f>
+        <v>chronic_18</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>chronic</v>
+      </c>
+      <c r="G26" s="2">
+        <v>44691</v>
+      </c>
+      <c r="H26" s="1">
+        <v>25.7</v>
+      </c>
+      <c r="I26" s="4">
+        <v>6.5620000000000003</v>
+      </c>
+      <c r="J26">
+        <f>H26/I26</f>
+        <v>3.9164888753428828</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="1">
-        <v>12</v>
-      </c>
-      <c r="E27" s="2">
-        <v>44677</v>
-      </c>
-      <c r="F27" s="1">
-        <v>31.9</v>
-      </c>
-      <c r="G27" s="5">
-        <v>6.0419999999999998</v>
-      </c>
-      <c r="H27" s="4">
-        <f t="shared" si="0"/>
-        <v>5.2797087057265806</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>18</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f>C27&amp;"_"&amp;D27</f>
+        <v>chronic_18</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>chronic</v>
+      </c>
+      <c r="G27" s="2">
+        <v>44691</v>
+      </c>
+      <c r="H27" s="1">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I27" s="4">
+        <v>6.3540000000000001</v>
+      </c>
+      <c r="J27">
+        <f>H27/I27</f>
+        <v>2.6912181303116149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>46</v>
@@ -1299,23 +1469,31 @@
       <c r="D28" s="1">
         <v>18</v>
       </c>
-      <c r="E28" s="2">
-        <v>44691</v>
-      </c>
-      <c r="F28" s="1">
-        <v>6.6</v>
-      </c>
-      <c r="G28" s="5">
-        <v>6.0419999999999998</v>
-      </c>
-      <c r="H28" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0923535253227408</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E28" s="1" t="str">
+        <f>C28&amp;"_"&amp;D28</f>
+        <v>variable_18</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>variable</v>
+      </c>
+      <c r="G28" s="2">
+        <v>44691</v>
+      </c>
+      <c r="H28" s="1">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I28" s="4">
+        <v>6.3540000000000001</v>
+      </c>
+      <c r="J28">
+        <f>H28/I28</f>
+        <v>2.6912181303116149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>46</v>
@@ -1324,25 +1502,33 @@
         <v>43</v>
       </c>
       <c r="D29" s="1">
-        <v>12</v>
-      </c>
-      <c r="E29" s="2">
-        <v>44677</v>
-      </c>
-      <c r="F29" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G29" s="5">
-        <v>6.2509999999999994</v>
-      </c>
-      <c r="H29" s="4">
-        <f t="shared" si="0"/>
-        <v>0.36794112941929291</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>18</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f>C29&amp;"_"&amp;D29</f>
+        <v>variable_18</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>variable</v>
+      </c>
+      <c r="G29" s="2">
+        <v>44691</v>
+      </c>
+      <c r="H29" s="1">
+        <v>28</v>
+      </c>
+      <c r="I29" s="4">
+        <v>7.5010000000000003</v>
+      </c>
+      <c r="J29">
+        <f>H29/I29</f>
+        <v>3.7328356219170775</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>46</v>
@@ -1353,23 +1539,31 @@
       <c r="D30" s="1">
         <v>18</v>
       </c>
-      <c r="E30" s="2">
-        <v>44691</v>
-      </c>
-      <c r="F30" s="1">
-        <v>12.7</v>
-      </c>
-      <c r="G30" s="5">
-        <v>6.2509999999999994</v>
-      </c>
-      <c r="H30" s="4">
-        <f t="shared" si="0"/>
-        <v>2.0316749320108785</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E30" s="1" t="str">
+        <f>C30&amp;"_"&amp;D30</f>
+        <v>variable_18</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>variable</v>
+      </c>
+      <c r="G30" s="2">
+        <v>44691</v>
+      </c>
+      <c r="H30" s="1">
+        <v>25.6</v>
+      </c>
+      <c r="I30" s="4">
+        <v>6.5590000000000002</v>
+      </c>
+      <c r="J30">
+        <f>H30/I30</f>
+        <v>3.9030339990852267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>46</v>
@@ -1378,25 +1572,33 @@
         <v>43</v>
       </c>
       <c r="D31" s="1">
-        <v>12</v>
-      </c>
-      <c r="E31" s="2">
-        <v>44677</v>
-      </c>
-      <c r="F31" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="G31" s="5">
-        <v>6.4560000000000004</v>
-      </c>
-      <c r="H31" s="4">
-        <f t="shared" si="0"/>
-        <v>1.5179677819083024</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>18</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f>C31&amp;"_"&amp;D31</f>
+        <v>variable_18</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>variable</v>
+      </c>
+      <c r="G31" s="2">
+        <v>44691</v>
+      </c>
+      <c r="H31" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="I31" s="4">
+        <v>5.7320000000000002</v>
+      </c>
+      <c r="J31">
+        <f>H31/I31</f>
+        <v>2.4773203070481506</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>46</v>
@@ -1405,25 +1607,33 @@
         <v>43</v>
       </c>
       <c r="D32" s="1">
+        <v>18</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f>C32&amp;"_"&amp;D32</f>
+        <v>variable_18</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>variable</v>
+      </c>
+      <c r="G32" s="2">
+        <v>44691</v>
+      </c>
+      <c r="H32" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="I32" s="4">
+        <v>6.0419999999999998</v>
+      </c>
+      <c r="J32">
+        <f>H32/I32</f>
+        <v>1.0923535253227408</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E32" s="2">
-        <v>44677</v>
-      </c>
-      <c r="F32" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="G32" s="5">
-        <v>6.2469999999999999</v>
-      </c>
-      <c r="H32" s="4">
-        <f t="shared" si="0"/>
-        <v>0.60829198015047226</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>46</v>
@@ -1434,23 +1644,31 @@
       <c r="D33" s="1">
         <v>18</v>
       </c>
-      <c r="E33" s="2">
-        <v>44691</v>
-      </c>
-      <c r="F33" s="1">
-        <v>15.7</v>
-      </c>
-      <c r="G33" s="5">
-        <v>6.2469999999999999</v>
-      </c>
-      <c r="H33" s="4">
-        <f t="shared" si="0"/>
-        <v>2.5132063390427404</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E33" s="1" t="str">
+        <f>C33&amp;"_"&amp;D33</f>
+        <v>variable_18</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>variable</v>
+      </c>
+      <c r="G33" s="2">
+        <v>44691</v>
+      </c>
+      <c r="H33" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="I33" s="4">
+        <v>6.2509999999999994</v>
+      </c>
+      <c r="J33">
+        <f>H33/I33</f>
+        <v>2.0316749320108785</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>46</v>
@@ -1459,23 +1677,31 @@
         <v>43</v>
       </c>
       <c r="D34" s="1">
-        <v>12</v>
-      </c>
-      <c r="E34" s="2">
-        <v>44677</v>
-      </c>
-      <c r="F34" s="1">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="G34" s="5">
-        <v>5.9380000000000006</v>
-      </c>
-      <c r="H34" s="4">
-        <f t="shared" si="0"/>
-        <v>3.2165712361064331</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>18</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f>C34&amp;"_"&amp;D34</f>
+        <v>variable_18</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>variable</v>
+      </c>
+      <c r="G34" s="2">
+        <v>44691</v>
+      </c>
+      <c r="H34" s="1">
+        <v>15.7</v>
+      </c>
+      <c r="I34" s="4">
+        <v>6.2469999999999999</v>
+      </c>
+      <c r="J34">
+        <f>H34/I34</f>
+        <v>2.5132063390427404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,21 +1714,29 @@
       <c r="D35" s="1">
         <v>18</v>
       </c>
-      <c r="E35" s="2">
-        <v>44691</v>
-      </c>
-      <c r="F35" s="1">
+      <c r="E35" s="1" t="str">
+        <f>C35&amp;"_"&amp;D35</f>
+        <v>variable_18</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>variable</v>
+      </c>
+      <c r="G35" s="2">
+        <v>44691</v>
+      </c>
+      <c r="H35" s="1">
         <v>15.2</v>
       </c>
-      <c r="G35" s="5">
+      <c r="I35" s="4">
         <v>5.9380000000000006</v>
       </c>
-      <c r="H35" s="4">
-        <f t="shared" si="0"/>
+      <c r="J35">
+        <f>H35/I35</f>
         <v>2.559784439205119</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1515,21 +1749,29 @@
       <c r="D36" s="1">
         <v>18</v>
       </c>
-      <c r="E36" s="2">
-        <v>44691</v>
-      </c>
-      <c r="F36" s="1">
+      <c r="E36" s="1" t="str">
+        <f>C36&amp;"_"&amp;D36</f>
+        <v>chronic_18</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>chronic</v>
+      </c>
+      <c r="G36" s="2">
+        <v>44691</v>
+      </c>
+      <c r="H36" s="1">
         <v>15.4</v>
       </c>
-      <c r="G36" s="5">
+      <c r="I36" s="4">
         <v>5.2119999999999997</v>
       </c>
-      <c r="H36" s="4">
-        <f t="shared" si="0"/>
+      <c r="J36">
+        <f>H36/I36</f>
         <v>2.9547198772064469</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -1542,21 +1784,29 @@
       <c r="D37" s="1">
         <v>18</v>
       </c>
-      <c r="E37" s="2">
-        <v>44691</v>
-      </c>
-      <c r="F37" s="1">
+      <c r="E37" s="1" t="str">
+        <f>C37&amp;"_"&amp;D37</f>
+        <v>chronic_18</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>chronic</v>
+      </c>
+      <c r="G37" s="2">
+        <v>44691</v>
+      </c>
+      <c r="H37" s="1">
         <v>16.3</v>
       </c>
-      <c r="G37" s="5">
+      <c r="I37" s="4">
         <v>5.9380000000000006</v>
       </c>
-      <c r="H37" s="4">
-        <f t="shared" si="0"/>
+      <c r="J37">
+        <f>H37/I37</f>
         <v>2.7450319973054897</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -1569,21 +1819,29 @@
       <c r="D38" s="1">
         <v>18</v>
       </c>
-      <c r="E38" s="2">
-        <v>44691</v>
-      </c>
-      <c r="F38" s="1">
+      <c r="E38" s="1" t="str">
+        <f>C38&amp;"_"&amp;D38</f>
+        <v>chronic_18</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>chronic</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44691</v>
+      </c>
+      <c r="H38" s="1">
         <v>5.4</v>
       </c>
-      <c r="G38" s="5">
+      <c r="I38" s="4">
         <v>6.4590000000000005</v>
       </c>
-      <c r="H38" s="4">
-        <f t="shared" si="0"/>
+      <c r="J38">
+        <f>H38/I38</f>
         <v>0.83604273107292149</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -1596,21 +1854,29 @@
       <c r="D39" s="1">
         <v>18</v>
       </c>
-      <c r="E39" s="2">
-        <v>44691</v>
-      </c>
-      <c r="F39" s="1">
+      <c r="E39" s="1" t="str">
+        <f>C39&amp;"_"&amp;D39</f>
+        <v>chronic_18</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>chronic</v>
+      </c>
+      <c r="G39" s="2">
+        <v>44691</v>
+      </c>
+      <c r="H39" s="1">
         <v>16.899999999999999</v>
       </c>
-      <c r="G39" s="5">
+      <c r="I39" s="4">
         <v>5.3119999999999994</v>
       </c>
-      <c r="H39" s="4">
-        <f t="shared" si="0"/>
+      <c r="J39">
+        <f>H39/I39</f>
         <v>3.1814759036144578</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -1623,21 +1889,29 @@
       <c r="D40" s="1">
         <v>18</v>
       </c>
-      <c r="E40" s="2">
-        <v>44691</v>
-      </c>
-      <c r="F40" s="1">
+      <c r="E40" s="1" t="str">
+        <f>C40&amp;"_"&amp;D40</f>
+        <v>variable_18</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>variable</v>
+      </c>
+      <c r="G40" s="2">
+        <v>44691</v>
+      </c>
+      <c r="H40" s="1">
         <v>19.5</v>
       </c>
-      <c r="G40" s="5">
+      <c r="I40" s="4">
         <v>5.4169999999999998</v>
       </c>
-      <c r="H40" s="4">
-        <f t="shared" si="0"/>
+      <c r="J40">
+        <f>H40/I40</f>
         <v>3.5997784751707589</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>24</v>
       </c>
@@ -1645,26 +1919,34 @@
         <v>47</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D41" s="1">
         <v>18</v>
       </c>
-      <c r="E41" s="2">
-        <v>44691</v>
-      </c>
-      <c r="F41" s="1">
+      <c r="E41" s="1" t="str">
+        <f>C41&amp;"_"&amp;D41</f>
+        <v>acute_18</v>
+      </c>
+      <c r="F41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>acute</v>
+      </c>
+      <c r="G41" s="2">
+        <v>44691</v>
+      </c>
+      <c r="H41" s="1">
         <v>33.299999999999997</v>
       </c>
-      <c r="G41" s="5">
+      <c r="I41" s="4">
         <v>5.9380000000000006</v>
       </c>
-      <c r="H41" s="4">
-        <f t="shared" si="0"/>
+      <c r="J41">
+        <f>H41/I41</f>
         <v>5.6079488043112145</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
@@ -1672,26 +1954,34 @@
         <v>47</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D42" s="1">
         <v>18</v>
       </c>
-      <c r="E42" s="2">
-        <v>44691</v>
-      </c>
-      <c r="F42" s="1">
+      <c r="E42" s="1" t="str">
+        <f>C42&amp;"_"&amp;D42</f>
+        <v>acute_18</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>acute</v>
+      </c>
+      <c r="G42" s="2">
+        <v>44691</v>
+      </c>
+      <c r="H42" s="1">
         <v>18.899999999999999</v>
       </c>
-      <c r="G42" s="5">
+      <c r="I42" s="4">
         <v>6.6659999999999995</v>
       </c>
-      <c r="H42" s="4">
-        <f t="shared" si="0"/>
+      <c r="J42">
+        <f>H42/I42</f>
         <v>2.8352835283528353</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>26</v>
       </c>
@@ -1699,26 +1989,34 @@
         <v>47</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D43" s="1">
         <v>18</v>
       </c>
-      <c r="E43" s="2">
-        <v>44691</v>
-      </c>
-      <c r="F43" s="1">
+      <c r="E43" s="1" t="str">
+        <f>C43&amp;"_"&amp;D43</f>
+        <v>acute_18</v>
+      </c>
+      <c r="F43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>acute</v>
+      </c>
+      <c r="G43" s="2">
+        <v>44691</v>
+      </c>
+      <c r="H43" s="1">
         <v>23.9</v>
       </c>
-      <c r="G43" s="5">
+      <c r="I43" s="4">
         <v>6.875</v>
       </c>
-      <c r="H43" s="4">
-        <f t="shared" si="0"/>
+      <c r="J43">
+        <f>H43/I43</f>
         <v>3.4763636363636361</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>27</v>
       </c>
@@ -1726,26 +2024,34 @@
         <v>47</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D44" s="1">
         <v>18</v>
       </c>
-      <c r="E44" s="2">
-        <v>44691</v>
-      </c>
-      <c r="F44" s="1">
+      <c r="E44" s="1" t="str">
+        <f>C44&amp;"_"&amp;D44</f>
+        <v>acute_18</v>
+      </c>
+      <c r="F44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>acute</v>
+      </c>
+      <c r="G44" s="2">
+        <v>44691</v>
+      </c>
+      <c r="H44" s="1">
         <v>33.299999999999997</v>
       </c>
-      <c r="G44" s="5">
+      <c r="I44" s="4">
         <v>6.5620000000000003</v>
       </c>
-      <c r="H44" s="4">
-        <f t="shared" si="0"/>
+      <c r="J44">
+        <f>H44/I44</f>
         <v>5.0746723559890272</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>28</v>
       </c>
@@ -1753,26 +2059,34 @@
         <v>47</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D45" s="1">
         <v>18</v>
       </c>
-      <c r="E45" s="2">
-        <v>44691</v>
-      </c>
-      <c r="F45" s="1">
+      <c r="E45" s="1" t="str">
+        <f>C45&amp;"_"&amp;D45</f>
+        <v>acute_18</v>
+      </c>
+      <c r="F45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>acute</v>
+      </c>
+      <c r="G45" s="2">
+        <v>44691</v>
+      </c>
+      <c r="H45" s="1">
         <v>32.9</v>
       </c>
-      <c r="G45" s="5">
+      <c r="I45" s="4">
         <v>6.1450000000000005</v>
       </c>
-      <c r="H45" s="4">
-        <f t="shared" si="0"/>
+      <c r="J45">
+        <f>H45/I45</f>
         <v>5.3539462978030912</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
@@ -1780,26 +2094,34 @@
         <v>47</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D46" s="1">
         <v>18</v>
       </c>
-      <c r="E46" s="2">
-        <v>44691</v>
-      </c>
-      <c r="F46" s="1">
+      <c r="E46" s="1" t="str">
+        <f>C46&amp;"_"&amp;D46</f>
+        <v>acute_18</v>
+      </c>
+      <c r="F46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>acute</v>
+      </c>
+      <c r="G46" s="2">
+        <v>44691</v>
+      </c>
+      <c r="H46" s="1">
         <v>12.8</v>
       </c>
-      <c r="G46" s="5">
+      <c r="I46" s="4">
         <v>6.3540000000000001</v>
       </c>
-      <c r="H46" s="4">
-        <f t="shared" si="0"/>
+      <c r="J46">
+        <f>H46/I46</f>
         <v>2.014479068303431</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>30</v>
       </c>
@@ -1807,26 +2129,34 @@
         <v>47</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D47" s="1">
         <v>18</v>
       </c>
-      <c r="E47" s="2">
-        <v>44691</v>
-      </c>
-      <c r="F47" s="1">
+      <c r="E47" s="1" t="str">
+        <f>C47&amp;"_"&amp;D47</f>
+        <v>acute_18</v>
+      </c>
+      <c r="F47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>acute</v>
+      </c>
+      <c r="G47" s="2">
+        <v>44691</v>
+      </c>
+      <c r="H47" s="1">
         <v>27.9</v>
       </c>
-      <c r="G47" s="5">
+      <c r="I47" s="4">
         <v>4.7919999999999998</v>
       </c>
-      <c r="H47" s="4">
-        <f t="shared" si="0"/>
+      <c r="J47">
+        <f>H47/I47</f>
         <v>5.82220367278798</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>31</v>
       </c>
@@ -1834,26 +2164,34 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D48" s="1">
         <v>18</v>
       </c>
-      <c r="E48" s="2">
-        <v>44691</v>
-      </c>
-      <c r="F48" s="1">
+      <c r="E48" s="1" t="str">
+        <f>C48&amp;"_"&amp;D48</f>
+        <v>acute_18</v>
+      </c>
+      <c r="F48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>acute</v>
+      </c>
+      <c r="G48" s="2">
+        <v>44691</v>
+      </c>
+      <c r="H48" s="1">
         <v>16.100000000000001</v>
       </c>
-      <c r="G48" s="5">
+      <c r="I48" s="4">
         <v>5.5229999999999997</v>
       </c>
-      <c r="H48" s="4">
-        <f t="shared" si="0"/>
+      <c r="J48">
+        <f>H48/I48</f>
         <v>2.9150823827629915</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,26 +2199,34 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D49" s="1">
         <v>18</v>
       </c>
-      <c r="E49" s="2">
-        <v>44691</v>
-      </c>
-      <c r="F49" s="1">
-        <v>41</v>
-      </c>
-      <c r="G49" s="5">
+      <c r="E49" s="1" t="str">
+        <f>C49&amp;"_"&amp;D49</f>
+        <v>acute_18</v>
+      </c>
+      <c r="F49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>acute</v>
+      </c>
+      <c r="G49" s="2">
+        <v>44691</v>
+      </c>
+      <c r="H49" s="1">
+        <v>41</v>
+      </c>
+      <c r="I49" s="4">
         <v>6.1470000000000002</v>
       </c>
-      <c r="H49" s="4">
-        <f t="shared" si="0"/>
+      <c r="J49">
+        <f>H49/I49</f>
         <v>6.6699202863185292</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>33</v>
       </c>
@@ -1888,26 +2234,34 @@
         <v>47</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D50" s="1">
         <v>18</v>
       </c>
-      <c r="E50" s="2">
-        <v>44691</v>
-      </c>
-      <c r="F50" s="1">
+      <c r="E50" s="1" t="str">
+        <f>C50&amp;"_"&amp;D50</f>
+        <v>acute_18</v>
+      </c>
+      <c r="F50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>acute</v>
+      </c>
+      <c r="G50" s="2">
+        <v>44691</v>
+      </c>
+      <c r="H50" s="1">
         <v>40.200000000000003</v>
       </c>
-      <c r="G50" s="5">
+      <c r="I50" s="4">
         <v>5.5200000000000005</v>
       </c>
-      <c r="H50" s="4">
-        <f t="shared" si="0"/>
+      <c r="J50">
+        <f>H50/I50</f>
         <v>7.2826086956521738</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>34</v>
       </c>
@@ -1915,28 +2269,36 @@
         <v>47</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D51" s="1">
         <v>18</v>
       </c>
-      <c r="E51" s="2">
-        <v>44691</v>
-      </c>
-      <c r="F51" s="1">
+      <c r="E51" s="1" t="str">
+        <f>C51&amp;"_"&amp;D51</f>
+        <v>acute_18</v>
+      </c>
+      <c r="F51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>acute</v>
+      </c>
+      <c r="G51" s="2">
+        <v>44691</v>
+      </c>
+      <c r="H51" s="1">
         <v>23.1</v>
       </c>
-      <c r="G51" s="5">
+      <c r="I51" s="4">
         <v>6.25</v>
       </c>
-      <c r="H51" s="4">
-        <f t="shared" si="0"/>
+      <c r="J51">
+        <f>H51/I51</f>
         <v>3.6960000000000002</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F51">
-    <sortCondition ref="A2:A51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J51">
+    <sortCondition ref="G2:G51"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
